--- a/7 - Probability distribution/7.3 tasks.xlsx
+++ b/7 - Probability distribution/7.3 tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Davut\University\Master ITMO\1 semester\Data pre-processing and statistical elements\7 - Probability distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B1D14C-A89B-4D1E-AA9A-209C297FCC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1847B4FC-F467-459B-9C3A-5F15EAE9B2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="15" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{B74DA883-D66A-40FA-9736-1853E316DC81}"/>
+    <workbookView xWindow="-25815" yWindow="3030" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{B74DA883-D66A-40FA-9736-1853E316DC81}"/>
   </bookViews>
   <sheets>
     <sheet name="ex 1.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -105,9 +105,6 @@
     <t>en</t>
   </si>
   <si>
-    <t>E€*E(n)</t>
-  </si>
-  <si>
     <t>cov(e,n)</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>p(e,n)</t>
+  </si>
+  <si>
+    <t>E(e)*E(n)</t>
   </si>
 </sst>
 </file>
@@ -2199,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FB7162-A0EB-4A51-9943-8277579B5DFA}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2662,39 +2662,39 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="b">
-        <f>IF(B$11*$B$15=B2,TRUE,FALSE)</f>
+        <f t="shared" ref="B19:J19" si="1">IF(B$11*$B$15=B2,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C19" s="2" t="b">
-        <f>IF(C$11*$B$15=C2,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D19" s="2" t="b">
-        <f>IF(D$11*$B$15=D2,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19" s="2" t="b">
-        <f>IF(E$11*$B$15=E2,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19" s="2" t="b">
-        <f>IF(F$11*$B$15=F2,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="2" t="b">
-        <f>IF(G$11*$B$15=G2,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="2" t="b">
-        <f>IF(H$11*$B$15=H2,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="2" t="b">
-        <f>IF(I$11*$B$15=I2,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="2" t="b">
-        <f>IF(J$11*$B$15=J2,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2703,39 +2703,39 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="b">
-        <f>IF(B$11*$C$15=B3,TRUE,FALSE)</f>
+        <f t="shared" ref="B20:J20" si="2">IF(B$11*$C$15=B3,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C20" s="2" t="b">
-        <f>IF(C$11*$C$15=C3,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D20" s="2" t="b">
-        <f>IF(D$11*$C$15=D3,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E20" s="2" t="b">
-        <f>IF(E$11*$C$15=E3,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20" s="2" t="b">
-        <f>IF(F$11*$C$15=F3,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="2" t="b">
-        <f>IF(G$11*$C$15=G3,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" s="2" t="b">
-        <f>IF(H$11*$C$15=H3,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I20" s="2" t="b">
-        <f>IF(I$11*$C$15=I3,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="2" t="b">
-        <f>IF(J$11*$C$15=J3,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2744,39 +2744,39 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="b">
-        <f>IF(B$11*$D$15=B4,TRUE,FALSE)</f>
+        <f t="shared" ref="B21:J21" si="3">IF(B$11*$D$15=B4,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C21" s="2" t="b">
-        <f>IF(C$11*$D$15=C4,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D21" s="2" t="b">
-        <f>IF(D$11*$D$15=D4,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E21" s="2" t="b">
-        <f>IF(E$11*$D$15=E4,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F21" s="2" t="b">
-        <f>IF(F$11*$D$15=F4,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G21" s="2" t="b">
-        <f>IF(G$11*$D$15=G4,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H21" s="2" t="b">
-        <f>IF(H$11*$D$15=H4,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I21" s="2" t="b">
-        <f>IF(I$11*$D$15=I4,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J21" s="2" t="b">
-        <f>IF(J$11*$D$15=J4,TRUE,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2785,39 +2785,39 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="b">
-        <f>IF(B$11*$E$15=B5,TRUE,FALSE)</f>
+        <f t="shared" ref="B22:J22" si="4">IF(B$11*$E$15=B5,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C22" s="2" t="b">
-        <f>IF(C$11*$E$15=C5,TRUE,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D22" s="2" t="b">
-        <f>IF(D$11*$E$15=D5,TRUE,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E22" s="2" t="b">
-        <f>IF(E$11*$E$15=E5,TRUE,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F22" s="2" t="b">
-        <f>IF(F$11*$E$15=F5,TRUE,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G22" s="2" t="b">
-        <f>IF(G$11*$E$15=G5,TRUE,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H22" s="2" t="b">
-        <f>IF(H$11*$E$15=H5,TRUE,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I22" s="2" t="b">
-        <f>IF(I$11*$E$15=I5,TRUE,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J22" s="2" t="b">
-        <f>IF(J$11*$E$15=J5,TRUE,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2826,39 +2826,39 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="b">
-        <f>IF(B$11*$F$15=B6,TRUE,FALSE)</f>
+        <f t="shared" ref="B23:J23" si="5">IF(B$11*$F$15=B6,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C23" s="2" t="b">
-        <f>IF(C$11*$F$15=C6,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D23" s="2" t="b">
-        <f>IF(D$11*$F$15=D6,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E23" s="2" t="b">
-        <f>IF(E$11*$F$15=E6,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F23" s="2" t="b">
-        <f>IF(F$11*$F$15=F6,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G23" s="2" t="b">
-        <f>IF(G$11*$F$15=G6,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H23" s="2" t="b">
-        <f>IF(H$11*$F$15=H6,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I23" s="2" t="b">
-        <f>IF(I$11*$F$15=I6,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J23" s="2" t="b">
-        <f>IF(J$11*$F$15=J6,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2867,39 +2867,39 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="b">
-        <f>IF(B$11*$G$15=B7,TRUE,FALSE)</f>
+        <f t="shared" ref="B24:J24" si="6">IF(B$11*$G$15=B7,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C24" s="2" t="b">
-        <f>IF(C$11*$G$15=C7,TRUE,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D24" s="2" t="b">
-        <f>IF(D$11*$G$15=D7,TRUE,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E24" s="2" t="b">
-        <f>IF(E$11*$G$15=E7,TRUE,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F24" s="2" t="b">
-        <f>IF(F$11*$G$15=F7,TRUE,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G24" s="2" t="b">
-        <f>IF(G$11*$G$15=G7,TRUE,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H24" s="2" t="b">
-        <f>IF(H$11*$G$15=H7,TRUE,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I24" s="2" t="b">
-        <f>IF(I$11*$G$15=I7,TRUE,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J24" s="2" t="b">
-        <f>IF(J$11*$G$15=J7,TRUE,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2908,39 +2908,39 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="b">
-        <f>IF(B$11*$H$15=B8,TRUE,FALSE)</f>
+        <f t="shared" ref="B25:J25" si="7">IF(B$11*$H$15=B8,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C25" s="2" t="b">
-        <f>IF(C$11*$H$15=C8,TRUE,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D25" s="2" t="b">
-        <f>IF(D$11*$H$15=D8,TRUE,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E25" s="2" t="b">
-        <f>IF(E$11*$H$15=E8,TRUE,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F25" s="2" t="b">
-        <f>IF(F$11*$H$15=F8,TRUE,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G25" s="2" t="b">
-        <f>IF(G$11*$H$15=G8,TRUE,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H25" s="2" t="b">
-        <f>IF(H$11*$H$15=H8,TRUE,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I25" s="2" t="b">
-        <f>IF(I$11*$H$15=I8,TRUE,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J25" s="2" t="b">
-        <f>IF(J$11*$H$15=J8,TRUE,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B56">
         <f>B12*B16</f>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58" s="1">
         <f>B55-B56</f>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60">
         <f>B10*B10</f>
@@ -3069,31 +3069,31 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60:K60" si="1">D10*D10</f>
+        <f t="shared" ref="D60:J60" si="8">D10*D10</f>
         <v>9</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="H60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>81</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>256</v>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62">
         <f>SUMPRODUCT(B60:J60,_xlfn.ANCHORARRAY(B61))</f>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63">
         <f>B62-B12^2</f>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64">
         <f>SQRT(B63)</f>
@@ -3159,34 +3159,34 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66">
-        <f>B14*B14</f>
+        <f t="shared" ref="B66:H66" si="9">B14*B14</f>
         <v>4</v>
       </c>
       <c r="C66">
-        <f>C14*C14</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="D66">
-        <f>D14*D14</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="E66">
-        <f>E14*E14</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="F66">
-        <f>F14*F14</f>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="G66">
-        <f>G14*G14</f>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="H66">
-        <f>H14*H14</f>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B68">
         <f>SUMPRODUCT(B66:H66,_xlfn.ANCHORARRAY(B67))</f>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69">
         <f>B68-B16^2</f>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B70">
         <f>SQRT(B69)</f>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72" s="1">
         <f>B58/(B64*B70)</f>
